--- a/proy_prueba/Resumen_Sobrecargaa.xlsx
+++ b/proy_prueba/Resumen_Sobrecargaa.xlsx
@@ -524,40 +524,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
         <v>2</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>2</v>
       </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -568,37 +568,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
         <v>2</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>2</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -700,37 +700,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <v>2</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -832,22 +832,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -923,34 +923,34 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>2</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
       <c r="K13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -964,13 +964,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1011,19 +1011,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1140,7 +1140,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1319,19 +1319,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1624,31 +1624,31 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>8</v>
+      </c>
+      <c r="H29">
         <v>2</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K29">
         <v>0</v>
